--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="H2">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="I2">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="J2">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N2">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O2">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P2">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q2">
-        <v>86.96598273688657</v>
+        <v>46.035156331022</v>
       </c>
       <c r="R2">
-        <v>782.6938446319791</v>
+        <v>414.316406979198</v>
       </c>
       <c r="S2">
-        <v>0.01867905149923337</v>
+        <v>0.006688153183938127</v>
       </c>
       <c r="T2">
-        <v>0.01867905149923337</v>
+        <v>0.006688153183938129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="H3">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="I3">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="J3">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N3">
         <v>178.879798</v>
       </c>
       <c r="O3">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P3">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q3">
-        <v>883.0687237191471</v>
+        <v>667.104838031906</v>
       </c>
       <c r="R3">
-        <v>7947.618513472324</v>
+        <v>6003.943542287154</v>
       </c>
       <c r="S3">
-        <v>0.1896705544927504</v>
+        <v>0.09691939165843536</v>
       </c>
       <c r="T3">
-        <v>0.1896705544927504</v>
+        <v>0.09691939165843537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="H4">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="I4">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="J4">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N4">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P4">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q4">
-        <v>138.7841071799581</v>
+        <v>242.233111064728</v>
       </c>
       <c r="R4">
-        <v>1249.056964619623</v>
+        <v>2180.097999582552</v>
       </c>
       <c r="S4">
-        <v>0.02980884483456789</v>
+        <v>0.03519249812845877</v>
       </c>
       <c r="T4">
-        <v>0.02980884483456789</v>
+        <v>0.03519249812845877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="H5">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="I5">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="J5">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N5">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O5">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P5">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q5">
-        <v>3.358696048684668</v>
+        <v>4.889311902839</v>
       </c>
       <c r="R5">
-        <v>30.228264438162</v>
+        <v>44.00380712555101</v>
       </c>
       <c r="S5">
-        <v>0.0007213999599528767</v>
+        <v>0.0007103368289900467</v>
       </c>
       <c r="T5">
-        <v>0.0007213999599528766</v>
+        <v>0.0007103368289900469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>100.286516</v>
       </c>
       <c r="I6">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="J6">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N6">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O6">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P6">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q6">
-        <v>196.2981632542529</v>
+        <v>137.5488178837129</v>
       </c>
       <c r="R6">
-        <v>1766.683469288276</v>
+        <v>1237.939360953416</v>
       </c>
       <c r="S6">
-        <v>0.0421620429648281</v>
+        <v>0.01998358727536131</v>
       </c>
       <c r="T6">
-        <v>0.04216204296482809</v>
+        <v>0.01998358727536132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>100.286516</v>
       </c>
       <c r="I7">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="J7">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N7">
         <v>178.879798</v>
       </c>
       <c r="O7">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P7">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q7">
-        <v>1993.247969355975</v>
+        <v>1993.247969355974</v>
       </c>
       <c r="R7">
         <v>17939.23172420377</v>
       </c>
       <c r="S7">
-        <v>0.4281212066905175</v>
+        <v>0.2895862383254865</v>
       </c>
       <c r="T7">
-        <v>0.4281212066905175</v>
+        <v>0.2895862383254866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>100.286516</v>
       </c>
       <c r="I8">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="J8">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N8">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P8">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q8">
-        <v>313.2611679986458</v>
+        <v>723.7702819919538</v>
       </c>
       <c r="R8">
-        <v>2819.350511987812</v>
+        <v>6513.932537927583</v>
       </c>
       <c r="S8">
-        <v>0.06728402653092569</v>
+        <v>0.105151951285593</v>
       </c>
       <c r="T8">
-        <v>0.06728402653092569</v>
+        <v>0.105151951285593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>100.286516</v>
       </c>
       <c r="I9">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="J9">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N9">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O9">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P9">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q9">
-        <v>7.581192605858668</v>
+        <v>14.60881478634356</v>
       </c>
       <c r="R9">
-        <v>68.230733452728</v>
+        <v>131.479333077092</v>
       </c>
       <c r="S9">
-        <v>0.001628331936854865</v>
+        <v>0.00212242118663132</v>
       </c>
       <c r="T9">
-        <v>0.001628331936854865</v>
+        <v>0.002122421186631321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="H10">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="I10">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="J10">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N10">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O10">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P10">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q10">
-        <v>66.05478676209388</v>
+        <v>130.7726759072469</v>
       </c>
       <c r="R10">
-        <v>594.4930808588449</v>
+        <v>1176.954083165222</v>
       </c>
       <c r="S10">
-        <v>0.01418762514801891</v>
+        <v>0.01899912498291596</v>
       </c>
       <c r="T10">
-        <v>0.01418762514801891</v>
+        <v>0.01899912498291597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="H11">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="I11">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="J11">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N11">
         <v>178.879798</v>
       </c>
       <c r="O11">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P11">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q11">
-        <v>670.7325600864121</v>
+        <v>1895.053514162056</v>
       </c>
       <c r="R11">
-        <v>6036.59304077771</v>
+        <v>17055.48162745851</v>
       </c>
       <c r="S11">
-        <v>0.144063778017341</v>
+        <v>0.2753201944909028</v>
       </c>
       <c r="T11">
-        <v>0.144063778017341</v>
+        <v>0.2753201944909029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="H12">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="I12">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="J12">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N12">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P12">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q12">
-        <v>105.4131088643627</v>
+        <v>688.1147942561696</v>
       </c>
       <c r="R12">
-        <v>948.7179797792647</v>
+        <v>6193.033148305527</v>
       </c>
       <c r="S12">
-        <v>0.02264123082618335</v>
+        <v>0.09997179370971322</v>
       </c>
       <c r="T12">
-        <v>0.02264123082618335</v>
+        <v>0.09997179370971326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="H13">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="I13">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="J13">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N13">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O13">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P13">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q13">
-        <v>2.551088877656666</v>
+        <v>13.88913282452656</v>
       </c>
       <c r="R13">
-        <v>22.95979989891</v>
+        <v>125.002195420739</v>
       </c>
       <c r="S13">
-        <v>0.0005479374696315459</v>
+        <v>0.002017863201213866</v>
       </c>
       <c r="T13">
-        <v>0.0005479374696315459</v>
+        <v>0.002017863201213867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="H14">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="I14">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="J14">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N14">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O14">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P14">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q14">
-        <v>14.73848963108978</v>
+        <v>15.61991790884111</v>
       </c>
       <c r="R14">
-        <v>132.646406679808</v>
+        <v>140.57926117957</v>
       </c>
       <c r="S14">
-        <v>0.003165617154847309</v>
+        <v>0.002269317887044277</v>
       </c>
       <c r="T14">
-        <v>0.003165617154847308</v>
+        <v>0.002269317887044278</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="H15">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="I15">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="J15">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N15">
         <v>178.879798</v>
       </c>
       <c r="O15">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P15">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q15">
-        <v>149.6573581816605</v>
+        <v>226.3514156815677</v>
       </c>
       <c r="R15">
-        <v>1346.916223634944</v>
+        <v>2037.16274113411</v>
       </c>
       <c r="S15">
-        <v>0.0321442639149153</v>
+        <v>0.03288514826785582</v>
       </c>
       <c r="T15">
-        <v>0.0321442639149153</v>
+        <v>0.03288514826785582</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="H16">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="I16">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="J16">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N16">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P16">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q16">
-        <v>23.52032438729955</v>
+        <v>82.1906910107422</v>
       </c>
       <c r="R16">
-        <v>211.682919485696</v>
+        <v>739.7162190966799</v>
       </c>
       <c r="S16">
-        <v>0.005051829884315195</v>
+        <v>0.01194095937941103</v>
       </c>
       <c r="T16">
-        <v>0.005051829884315195</v>
+        <v>0.01194095937941103</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="H17">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="I17">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="J17">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N17">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O17">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P17">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q17">
-        <v>0.5692122980693334</v>
+        <v>1.658963640829444</v>
       </c>
       <c r="R17">
-        <v>5.122910682624</v>
+        <v>14.930672767465</v>
       </c>
       <c r="S17">
-        <v>0.0001222586751167057</v>
+        <v>0.0002410202080485628</v>
       </c>
       <c r="T17">
-        <v>0.0001222586751167057</v>
+        <v>0.0002410202080485628</v>
       </c>
     </row>
   </sheetData>
